--- a/biology/Médecine/Helmut_Poppendick/Helmut_Poppendick.xlsx
+++ b/biology/Médecine/Helmut_Poppendick/Helmut_Poppendick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helmut Poppendick était un médecin allemand qui  servit dans la SS durant la seconde guerre mondiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 6 janvier 1902. Il étudie la médecine de 1919 à 1926 à Göttingen, à Munich et à Berlin. Il reçoit sa licence en médecine le 1er février 1928. Il travaille pendant quatre ans comme assistant dans la clinique de la Charité à Berlin. De juin 1933 à octobre 1934, il est le directeur médical adjoint de l'Hôpital Virchow à Berlin.
 Il rejoint le NSDAP en 1932, comme membre no 998607. En 1935, il termine sa formation comme expert pour "l'hygiène de la race" à l'Institut Kaiser Wilhelm sur l'anthropologie, la génétique humaine et l'eugénisme. Il devient l'adjoint du directeur ministériel Arthur Gütt au ministère de l'Intérieur du Reich. Il devient le chef du cabinet au Bureau SS pour la population Politique et des soins de santé génétique. Il est à la tête de l'Office généalogique.
